--- a/trunk/Proyecto final/SprintsDevelopment/Branch 03/Issues.xlsx
+++ b/trunk/Proyecto final/SprintsDevelopment/Branch 03/Issues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -12,12 +12,12 @@
     <sheet name="Fernandez" sheetId="3" r:id="rId3"/>
     <sheet name="Peker" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Fecha</t>
   </si>
@@ -36,12 +36,18 @@
   <si>
     <t>Error para levantar la BD con EA. No detecta las clases como tablas, por ende no permite generar el DDL</t>
   </si>
+  <si>
+    <t>T-03001-003</t>
+  </si>
+  <si>
+    <t>Excepcion lanzada al intentar inicializar la base de datos.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +85,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -157,6 +168,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -191,6 +203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,21 +379,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41141</v>
       </c>
@@ -403,6 +416,17 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -411,38 +435,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Proyecto final/SprintsDevelopment/Branch 03/Issues.xlsx
+++ b/trunk/Proyecto final/SprintsDevelopment/Branch 03/Issues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -12,12 +12,12 @@
     <sheet name="Fernandez" sheetId="3" r:id="rId3"/>
     <sheet name="Peker" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Fecha</t>
   </si>
@@ -46,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,7 +168,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -203,7 +202,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,21 +377,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>41141</v>
       </c>
@@ -416,17 +414,6 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>41139</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -435,39 +422,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>41139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/Proyecto final/SprintsDevelopment/Branch 03/Issues.xlsx
+++ b/trunk/Proyecto final/SprintsDevelopment/Branch 03/Issues.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14055" windowHeight="4620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14055" windowHeight="4620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kapica" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Fernandez" sheetId="3" r:id="rId3"/>
     <sheet name="Peker" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Fecha</t>
   </si>
@@ -40,14 +40,26 @@
     <t>T-03001-003</t>
   </si>
   <si>
-    <t>Excepcion lanzada al intentar inicializar la base de datos.</t>
+    <t>Problema al intentar inicializar la base de datos.</t>
+  </si>
+  <si>
+    <t>T-03001-004</t>
+  </si>
+  <si>
+    <t>El problema estaba en el orden de los parametros al inicializar datos de prueba de la entidad User</t>
+  </si>
+  <si>
+    <t>La interfaz no respeta los estilos.</t>
+  </si>
+  <si>
+    <t>El problema estuvo en una vista parcial que redefinia los estilos de la interfaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +180,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -202,6 +215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,21 +391,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41141</v>
       </c>
@@ -422,20 +436,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,16 +469,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41139</v>
       </c>
@@ -487,6 +504,23 @@
       </c>
       <c r="C2" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -495,16 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/trunk/Proyecto final/SprintsDevelopment/Branch 03/Issues.xlsx
+++ b/trunk/Proyecto final/SprintsDevelopment/Branch 03/Issues.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14055" windowHeight="4620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14055" windowHeight="4620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Kapica" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Fernandez" sheetId="3" r:id="rId3"/>
     <sheet name="Peker" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Fecha</t>
   </si>
@@ -54,12 +54,18 @@
   <si>
     <t>El problema estuvo en una vista parcial que redefinia los estilos de la interfaz</t>
   </si>
+  <si>
+    <t>T-03003-001</t>
+  </si>
+  <si>
+    <t>no me muestra ordenadamente los controles graficos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -215,7 +220,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,21 +395,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>41141</v>
       </c>
@@ -436,20 +440,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,19 +473,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>41139</v>
       </c>
@@ -509,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>41141</v>
       </c>
@@ -529,16 +533,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,6 +558,17 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>41142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
